--- a/JPD123/từ vựng.xlsx
+++ b/JPD123/từ vựng.xlsx
@@ -27,12 +27,42 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2" uniqueCount="2">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="12" uniqueCount="12">
   <si>
     <t>ひきて</t>
   </si>
   <si>
     <t>Kéo nó</t>
+  </si>
+  <si>
+    <t>しゅうまつ</t>
+  </si>
+  <si>
+    <t>thông báo</t>
+  </si>
+  <si>
+    <t>やさい</t>
+  </si>
+  <si>
+    <t>rau củ</t>
+  </si>
+  <si>
+    <t>まんなか</t>
+  </si>
+  <si>
+    <t xml:space="preserve">ở giữa </t>
+  </si>
+  <si>
+    <t>こうえん</t>
+  </si>
+  <si>
+    <t>công viên</t>
+  </si>
+  <si>
+    <t>ひま</t>
+  </si>
+  <si>
+    <t>thời gian rãnh</t>
   </si>
 </sst>
 </file>
@@ -1185,13 +1215,17 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
-  <dimension ref="A1:B1"/>
+  <dimension ref="A1:B6"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B1" sqref="B1"/>
+      <selection activeCell="A7" sqref="A7"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9.14285714285714" defaultRowHeight="15" outlineLevelCol="1"/>
+  <sheetFormatPr defaultColWidth="9.14285714285714" defaultRowHeight="15" outlineLevelRow="5" outlineLevelCol="1"/>
+  <cols>
+    <col min="1" max="1" width="13.4285714285714" customWidth="1"/>
+    <col min="2" max="2" width="14.2857142857143" customWidth="1"/>
+  </cols>
   <sheetData>
     <row r="1" spans="1:2">
       <c r="A1" t="s">
@@ -1201,6 +1235,46 @@
         <v>1</v>
       </c>
     </row>
+    <row r="2" spans="1:2">
+      <c r="A2" t="s">
+        <v>2</v>
+      </c>
+      <c r="B2" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="3" spans="1:2">
+      <c r="A3" t="s">
+        <v>4</v>
+      </c>
+      <c r="B3" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="4" spans="1:2">
+      <c r="A4" t="s">
+        <v>6</v>
+      </c>
+      <c r="B4" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="5" spans="1:2">
+      <c r="A5" t="s">
+        <v>8</v>
+      </c>
+      <c r="B5" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="6" spans="1:2">
+      <c r="A6" t="s">
+        <v>10</v>
+      </c>
+      <c r="B6" t="s">
+        <v>11</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
   <headerFooter/>
